--- a/data/coding/mods_info.xlsx
+++ b/data/coding/mods_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\masd_reloaded\data\coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\masd\data\coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64953940-E158-4CB4-908D-C52455B4CE21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727513F3-8DBD-4D16-B47E-D9B28BC65CC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" xr2:uid="{F28EC42D-E49E-43BE-821B-4C461668CB3D}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12165" xr2:uid="{F28EC42D-E49E-43BE-821B-4C461668CB3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="201">
   <si>
     <t>ga1</t>
   </si>
@@ -255,12 +255,6 @@
     <t>id.out</t>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
@@ -369,12 +363,6 @@
     <t>cluster.abbr</t>
   </si>
   <si>
-    <t>cluster.sd</t>
-  </si>
-  <si>
-    <t>cluster.other</t>
-  </si>
-  <si>
     <t>inventory.abbr</t>
   </si>
   <si>
@@ -631,6 +619,15 @@
   </si>
   <si>
     <t>Web-Based Study</t>
+  </si>
+  <si>
+    <t>n_options</t>
+  </si>
+  <si>
+    <t>sex.vio</t>
+  </si>
+  <si>
+    <t>Country-Level Rates of Sexual Assault</t>
   </si>
 </sst>
 </file>
@@ -982,11 +979,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C23A8BF-249C-4B5F-A4CB-E7279A9D2C57}">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,35 +993,38 @@
     <col min="5" max="5" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" t="s">
-        <v>140</v>
-      </c>
       <c r="G1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="H1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1033,171 +1033,177 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>121</v>
       </c>
-      <c r="B5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" t="s">
-        <v>145</v>
-      </c>
-      <c r="G8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E10" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1206,15 +1212,15 @@
         <v>148</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1223,15 +1229,15 @@
         <v>149</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1240,46 +1246,46 @@
         <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
         <v>151</v>
@@ -1291,12 +1297,15 @@
         <v>154</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
         <v>151</v>
@@ -1305,670 +1314,676 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" t="s">
+        <v>153</v>
+      </c>
+      <c r="F40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>123</v>
       </c>
-      <c r="B19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" t="s">
-        <v>155</v>
-      </c>
-      <c r="E20" t="s">
-        <v>157</v>
-      </c>
-      <c r="F20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="B41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" t="s">
+        <v>156</v>
+      </c>
+      <c r="F41" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" t="s">
         <v>158</v>
       </c>
-      <c r="F21" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>159</v>
-      </c>
-      <c r="F22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>197</v>
-      </c>
-      <c r="F23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>181</v>
-      </c>
-      <c r="B24" t="s">
-        <v>155</v>
-      </c>
-      <c r="C24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>198</v>
-      </c>
-      <c r="F24" t="s">
-        <v>145</v>
-      </c>
-      <c r="G24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" t="s">
-        <v>162</v>
-      </c>
-      <c r="F27" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" t="s">
-        <v>163</v>
-      </c>
-      <c r="F28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>155</v>
-      </c>
-      <c r="C29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>165</v>
-      </c>
-      <c r="F30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>178</v>
-      </c>
-      <c r="F32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>193</v>
-      </c>
-      <c r="F33" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>176</v>
-      </c>
-      <c r="F34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>199</v>
-      </c>
-      <c r="F35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>179</v>
-      </c>
-      <c r="B36" t="s">
-        <v>155</v>
-      </c>
-      <c r="E36" t="s">
-        <v>180</v>
-      </c>
-      <c r="F36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>196</v>
-      </c>
-      <c r="F37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>167</v>
-      </c>
-      <c r="F38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" t="s">
-        <v>147</v>
-      </c>
-      <c r="E39" t="s">
-        <v>168</v>
-      </c>
-      <c r="F39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>169</v>
-      </c>
-      <c r="F41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" t="s">
-        <v>147</v>
-      </c>
-      <c r="E42" t="s">
-        <v>201</v>
-      </c>
       <c r="F42" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>122</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" t="b">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="E43" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="F43" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>147</v>
-      </c>
-      <c r="C44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>200</v>
-      </c>
-      <c r="F44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" t="b">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="E45" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F45" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" t="b">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="E46" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="F46" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E48" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="F48" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" t="b">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="F50" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D55">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D57">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1976,195 +1991,195 @@
         <v>94</v>
       </c>
       <c r="B70" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B75" t="s">
-        <v>132</v>
-      </c>
-      <c r="D75">
-        <v>6</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B79" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B82" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B88" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="B89" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2172,140 +2187,146 @@
         <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="B98" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B109" t="s">
         <v>151</v>
+      </c>
+      <c r="E109" t="s">
+        <v>152</v>
+      </c>
+      <c r="F109" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="B110" t="s">
         <v>151</v>
@@ -2313,7 +2334,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="B111" t="s">
         <v>151</v>
@@ -2321,229 +2342,199 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B112" t="s">
-        <v>155</v>
-      </c>
-      <c r="E112" t="s">
-        <v>156</v>
-      </c>
-      <c r="F112" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B113" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B114" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B115" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B116" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B117" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B118" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B119" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B120" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B121" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B122" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B123" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B126" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B127" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="B128" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B129" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B130" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B131" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B132" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B133" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B134" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>38</v>
-      </c>
-      <c r="B136" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>35</v>
-      </c>
-      <c r="B137" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>30</v>
-      </c>
-      <c r="B138" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F138">
-    <sortCondition ref="C2"/>
+  <sortState ref="A2:H135">
+    <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
